--- a/classified_clinical_trials.xlsx
+++ b/classified_clinical_trials.xlsx
@@ -616,7 +616,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -684,7 +688,11 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -732,7 +740,11 @@
           <t>Assistance Publique - Hôpitaux de Paris</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Rare genetic forms of obesity, so called monogenic obesity are linked to alteration in energy balance involving hypothalamic pathways.
@@ -749,14 +761,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>Monogenic Obesity</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>Change in weight and Body Mass Index (BMI)</t>
@@ -798,13 +822,21 @@
           <t>Paris, Paris</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr">
         <is>
           <t>France, France</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>Pharmacological</t>
@@ -852,7 +884,11 @@
           <t>Norwegian University of Science and Technology</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>The aim of the present study was to determine the effects of a multidisciplinary approach and intensity-controlled interval training on cardiovascular risk factors in overweight adolescents</t>
@@ -863,7 +899,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>Obesity, Cardiovascular Diseases</t>
@@ -889,8 +929,16 @@
           <t>12 months</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -912,13 +960,21 @@
           <t>Trondheim</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -966,7 +1022,11 @@
           <t>CAMC Health System</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>The purpose of this study is to determine the effectiveness of two different non-energy restricted controlled carbohydrate programs with the American Diabetes Associations' diet on glycosylated hemoglobin and other diabetes risk factors in obese adolescents with metabolic syndrome, a constellation of symptoms associated with the development of type 2 diabetes and cardiovascular disease.</t>
@@ -977,7 +1037,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>Elevated Triglycerides, Systolic Hypertension, Insulin Resistance, Abdominal Obesity</t>
@@ -1003,8 +1067,16 @@
           <t>1 year</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -1036,7 +1108,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -1084,7 +1160,11 @@
           <t>St. Antonius Hospital</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>Before and during bariatric surgery patients are given oral and i.v. midazolam, respectively and blood samples are drawn to establish midazolam time-concentration profiles. After 0.5-2 years, and substantial weight loss, oral and i.v. midazolam are administered once more and blood samples are taken again.</t>
@@ -1125,8 +1205,16 @@
           <t>0.5-2 years</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -1148,13 +1236,21 @@
           <t>Nieuwegein</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>Pharmacological</t>
@@ -1202,7 +1298,11 @@
           <t>University Health Network, Toronto</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>The purpose of this study is to evaluate the effects of Mindfulness Based Eating Awareness Training (MB-EAT) for patients who have had bariatric surgery on their weight and mental and physical health compared to patients who do not do this group. All participants will complete questionnaires evaluating eating and mental health before and after the group and 6 and 12 months later. They will have blood pressure readings at these times and complete a questionnaire about their digestive health. Our hypothesis is that participants will maintain their weight loss after bariatric surgery and have improvements in the other outcomes.</t>
@@ -1213,7 +1313,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>Obesity, Morbid, Eating Disorder Symptom</t>
@@ -1283,7 +1387,11 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -1306,7 +1414,11 @@
           <t>Clinical Significance of Alveolar Recruitment Maneuver During Bariatric Surgery</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1317,13 +1429,21 @@
           <t>2015-11-01</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>Centre Hospitalier Universitaire de Nice</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>The ventilation of the patient under general anesthesia is an old problem and extensively studied, especially in visceral surgery, higher risk of postoperative complications. Studies have recently shown the impact of a lung-protective ventilation in visceral surgery, however obese patients are often excluded, and alveolar recruitment maneuver has never been studied independently.
@@ -1336,7 +1456,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -1362,8 +1486,16 @@
           <t>2 hours, 2 hours</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -1390,13 +1522,21 @@
           <t>Nice</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -1429,14 +1569,26 @@
           <t>UNKNOWN</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>Hospital Clinic of Barcelona</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Background: Type 2 Diabetes Mellitus (T2DM) is associated with an increased burden for cardiovascular disease (CVD). Multifactorial interventions are necessary to reduce the CV risk in T2DM. Bariatric surgery appears to be an alternative for the multifactorial intervention in T2DM associated with obesity. Data have shown, that clinical trial aiming at the control of CVRF in T2DM may not translate in the reduction of CV events.
@@ -1478,8 +1630,16 @@
           <t>24 months</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -1538,7 +1698,11 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -1601,14 +1765,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>Quality of Life, Obesity, Morbid, Bariatric Surgery Candidate</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>EQ-5D (EuroQol Five Dimension), BMI</t>
@@ -1619,8 +1795,16 @@
           <t>up to 1 year post-operatively, up to 1 year post-operatively</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -1644,13 +1828,21 @@
           <t>London</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -1698,7 +1890,11 @@
           <t>Feevale</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>Adherence to obesity treatment programs has been a limiting factor to good results in loosing weight. This study aimed to verify if obese subjects submitted to a physical exercise program and group psychotherapy would have a greater adherence, than obese people exercising only.</t>
@@ -1709,7 +1905,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>Obesity, Therapy</t>
@@ -1735,8 +1935,16 @@
           <t>three months</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -1765,7 +1973,11 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -1830,7 +2042,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>Ventral Hernia, Surgery, Risk Reduction, Lifestyle, Postoperative Complications, Prehabilitation</t>
@@ -1892,13 +2108,21 @@
           <t>Herlev, Holbæk, Køge</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W12" t="inlineStr">
         <is>
           <t>Denmark, Denmark, Denmark</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -1961,7 +2185,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>Morbid Obesity, Obstructive Sleep Apnea, Hypertension, Urinary Incontinence, Hypertriglyceridemia, Diabetes, Hypercholesterolemia</t>
@@ -1987,8 +2215,16 @@
           <t>NA, NA, NA</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -2006,11 +2242,31 @@
 4. Patients with large hiatal hernias. -</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y13" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -2058,7 +2314,11 @@
           <t>National Institute of Diabetes and Digestive and Kidney Diseases (NIDDK)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>This study will determine whether electrical stimulation of an area of the brain called the dorsolateral prefrontal cortex, which is important in determining the feeling of fullness after eating, affects how much food a person eats and weight loss over 4 weeks. It will also compare weight changes in people who attend weight loss counseling sessions and those who do not over this period of time.
@@ -2154,7 +2414,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y14" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -2202,7 +2466,11 @@
           <t>Göteborg University</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>Obesity is a growing epidemic throughout the world and is followed by increasing incidence of type 2 diabetes that accounts for 90-95% of all cases of diabetes. Weight loss is a major objective, although difficult to achieve with medical treatments. Many recent studies demonstrated that bariatric surgery has the potency to achieve marked and sustained weight loss, and is also associated with a significant improvement in control of type 2 diabetes. The principal aim of this study is to compare two types of bariatric procedures, the Roux-en-Y gastric bypass (RYGBP) and sleeve gastrectomy (SG). The study hypothesis is that these procedures have equal efficacy with regard to resolution of type 2 diabetes.</t>
@@ -2213,7 +2481,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>Obesity, Type 2 Diabetes, Bariatric Surgery</t>
@@ -2273,13 +2545,21 @@
           <t>Gothenburg</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y15" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -2327,7 +2607,11 @@
           <t>University of Missouri-Columbia</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>Variable outcomes after weight loss surgery are likely attributable to complex, poorly understood mechanisms. Due to the significant impact that morbid obesity has on a patient's health, successful management of obesity and its related comorbid medical conditions is important and thus necessitates continued improved therapies for treating obesity. Although the mechanisms of weight loss after surgical intervention are poorly understood, improved understanding of molecular and metabolic changes that occur after weight loss surgery may offer the ability to provide targeted precision therapy for patients with morbid obesity undergoing surgical therapy. In this proposal, the investigators will combine a clinical trial whereby modifications to the gold-standard for weight loss surgery, the gastric bypass, are evaluated while simultaneously measuring molecular and metabolic changes that occur in response to these weight loss procedures. Through creating variable lengths of bypass intestine after gastric bypass, the investigators will be able to determine the effect of malabsorption on clinical outcomes and mechanisms involved in weight loss after gastric bypass. The investigators will also use two control groups. One will be a surgical weight loss control group and consist of patients undergoing a laparoscopic sleeve gastrectomy, a non-intestinal bypass procedure. The other group will consist of patients having non-surgical weight loss therapy. To asses metabolic changes that occur in response to surgical weight therapy and specifically intestinal bypass and malabsorption, the investigators will examine changes in the gut microbiome and plasma gut enteroendocrine hormones. To evaluate molecular pathways that are impacted as a result of gastric bypass and malabsorption, the investigators will measure circulating microRNAs (miRNAs) in the blood. Measurement of miRNAs will provide data on an easily measurable molecular marker for each treatment group. This is a first step in translational exploration of mechanisms of weight loss after surgery by evaluating both clinical and molecular/metabolic outcomes and begin an explorative process towards creating an individualized approach to improving outcomes after weight loss surgery.</t>
@@ -2338,7 +2622,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>Obesity, Morbid, Metabolic Syndrome, NASH - Nonalcoholic Steatohepatitis</t>
@@ -2409,7 +2697,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y16" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -2472,7 +2764,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -2541,7 +2837,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y17" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -2604,7 +2904,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -2676,7 +2980,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y18" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -2724,7 +3032,11 @@
           <t>VA Office of Research and Development</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>The purpose of this study is to learn more about how common lifestyle interventions, such as exercise, affect how our brains respond to performing thinking tasks and to viewing pictures of foods and various other objects. The investigators are also interested in how changes in hormones that might be different in men and women could affect how lifestyle interventions change these brain responses.</t>
@@ -2735,7 +3047,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>Overweight/Obesity, Stress</t>
@@ -2806,7 +3122,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y19" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -2869,7 +3189,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>Psoriasis, Weight Loss, Diet</t>
@@ -2953,7 +3277,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y20" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -3001,7 +3329,11 @@
           <t>Hacettepe University</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>This study aimed to examine the effects of obesity and bariatric surgery on gut microbiota in a Turkish population, and to contribute to the literature by bringing multi-dimensional parameters including dietary intake, metabolic and inflammatory markers. This case-control study was conducted between June 2015 and August 2019. All participants were followed during the six-month period. Face-to-face interviews and physical examinations were held, and blood and fecal samples were collected at the baseline (M0) and at the end of 3 (M3) and 6 months (M6). Dietary intakes of subjects were assessed using 24-h dietary recall method in each interview and a detailed quantitative food frequency questionnaire that involved 85 food items. Subjects were recruited to the study as three groups: 15 patients who had bariatric surgery as study group, 8 morbidly obese participants who did not have bariatric surgery as control group-1 and 11 participants who were non-obese (lean (n=5) and pre-obese (n=6)) as control group-2. All subjects in the study group had sleeve gastrectomy. Subjects in control groups were selected as age and gender matched with the participants in the study group. Individuals were excluded if (a) they were under 19 or above 65 years old, (b) they had an acute or chronic inflammatory disease, (c) they were diagnosed with infectious diseases, cancer or alcohol addiction, (d) they used antibiotics in last 3 months before the screening.</t>
@@ -3012,7 +3344,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>Obesity, Bariatric Surgery</t>
@@ -3060,11 +3396,31 @@
 * they used antibiotics in last 3 months before the screening.</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y21" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -3127,7 +3483,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -3153,8 +3513,16 @@
           <t>0, 6 and 12 months, 12 months</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S22" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -3189,7 +3557,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y22" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -3252,7 +3624,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>Obesity, Morbid</t>
@@ -3278,8 +3654,16 @@
           <t>From baseline to 1 year postoperatively</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -3299,13 +3683,21 @@
           <t>Trondheim</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y23" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -3328,7 +3720,11 @@
           <t>Effect of Gastric Bypass Surgery on Pancreatic Islet and Incretin Function - Follow-up Study</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3349,7 +3745,11 @@
           <t>Hvidovre University Hospital</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>To examine pancreatic islet function and incretin function during intravenous and oral stimulation \&gt;2 years after gastric bypass surgery in patients with normal glucose tolerance. We hypothesize that islet cell and incretin function is enhanced in response to oral, but not intravenous, stimulation - i.e. incretin released from the gut in response to oral stimulation play a key role for the enhanced islet function after gastric bypass surgery.</t>
@@ -3360,14 +3760,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>Obesity</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>Change in islet cell function from baseline (preoperatively)</t>
@@ -3417,7 +3829,11 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y24" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -3465,7 +3881,11 @@
           <t>Protein Supplies SL</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>Prospective multicenter observational clinical study on a dietary regimen in obese patients scheduled for bariatric surgery.</t>
@@ -3476,7 +3896,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>Obesity, Morbid, Bariatric Surgery, Comorbidity</t>
@@ -3540,11 +3964,31 @@
 * Patients with contraindications to surgery</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y25" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -3592,7 +4036,11 @@
           <t>Chinese University of Hong Kong</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>The study is aimed
@@ -3606,7 +4054,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>Non-Alcoholic Fatty Liver Disease, Obesity, Morbid, Brown Fat, Metabolic Disease, Diabetes Mellitus, Insulin Resistance, Abdominal Subcutaneous Fat</t>
@@ -3632,8 +4084,16 @@
           <t>one year, one year, one year, one year, one year, one year, one year, one year, one year, one year, one year, one year, one year, one year</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -3668,7 +4128,11 @@
           <t>Hong Kong</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y26" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -3716,7 +4180,11 @@
           <t>Rabin Medical Center</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>In this prospective study we will evaluate the changes in respiratory physiology occurring in morbidly obese adolescents following bariatric surgery at Schneider Children's Medical Center of Israel (SCMCI).</t>
@@ -3727,7 +4195,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -3781,13 +4253,21 @@
           <t>Petach Tikva</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr">
         <is>
           <t>Israel</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y27" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -3835,7 +4315,11 @@
           <t>Medtronic - MITG</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>This study will compare glucose and simple carbohydrate sensitivity. The hypothesis is that rapid emptying of high-glycemic index foods after Roux-En-Y gastric bypass (RYGB) causes reactive hypoglycemia. It is believed that the controlled release offered by an intact pylorus will be advantageous for long term results in bariatric surgery. This study can provide a scientific rationale, in a short duration of time, for why pylorus sparing surgery, such as the sleeve gastrectomy or duodenal switch, may offer therapeutic advantages, as compared to non-pyloric sparing surgery, namely the gastric bypass.</t>
@@ -3846,14 +4330,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>Hypoglycemia, Obesity</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
           <t>Mean Serum Glucose Levels, Reactive Hypoglycemia Status</t>
@@ -3907,7 +4403,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y28" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -4052,7 +4552,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y29" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -4100,7 +4604,11 @@
           <t>Blekinge County Council Hospital</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>The purpose of this study is to compare Gastric Bypass and AspireAssist Aspiration Therapy over 5 years of treatment with regards to weight loss, quality of life, complications, adverse events, and health economics.</t>
@@ -4111,7 +4619,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -4173,13 +4685,21 @@
           <t>Karlskrona</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y30" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -4242,7 +4762,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>Obesity, Morbid</t>
@@ -4268,8 +4792,16 @@
           <t>From baseline to 1 year postoperatively</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -4289,13 +4821,21 @@
           <t>Trondheim</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y31" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -4360,14 +4900,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>Morbid Obesity</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr">
         <is>
           <t>To compare physical activity and activity thermogenesis in patients undergoing gastric bypass bariatric surgery at baseline (pre-operatively) and 6 and 24 months after gastric bypass surgery.</t>
@@ -4429,7 +4981,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr"/>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y32" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -4492,7 +5048,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>Obesity, Morbid</t>
@@ -4518,8 +5078,16 @@
           <t>From baseline to 1 year postoperatively</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -4539,13 +5107,21 @@
           <t>Trondheim</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W33" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y33" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -4593,7 +5169,11 @@
           <t>Shanghai Jiao Tong University School of Medicine</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>This is a long-term follow-up and interventional study in individuals who have been diagnosed with moderate to severe obesity with or without diabetes. The purpose of this study is to determine the effects of sleeve gastrectomy on weight and blood sugar control and underlying mechanisms by metabolomics, metagenomics, functional magnetic resonance imaging (fMRI) ,adipose tissue expression chip and etc.</t>
@@ -4604,7 +5184,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>Morbid Obesity</t>
@@ -4679,7 +5263,11 @@
           <t>China</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y34" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -4742,7 +5330,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>Pediatric Obstructive Sleep Apnea, Pediatric Obesity</t>
@@ -4810,7 +5402,11 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y35" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -4858,7 +5454,11 @@
           <t>Al-Azhar University</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>The present study is a retrospective cohort study. Patients older than 18 years of age and underwent Roux-en-Y gastric bypass (RYGB) surgical treatment during the period from 2014 to 2019 and paired severely overweight controls who had no longer gone through bariatric surgery. Patients having BMI (Body Mass Index) much lower than 35 (calculated as the weight (kilograms) / length2 (meters)), a base line diagnosis taken into consideration a medical exclusion for surgical treatment died in one year of surgical operation and missed statistics at scientific information had been excluded from the study. The primary final results of the study was the weight-change percentage at follow-up in comparison with baseline one and the clinical events after surgery.</t>
@@ -4869,7 +5469,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -4895,8 +5499,16 @@
           <t>1 year, 1 year, 1 year</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -4918,13 +5530,21 @@
           <t>Cairo</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr">
         <is>
           <t>Egypt</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y36" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -4972,7 +5592,11 @@
           <t>University of Missouri-Columbia</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>A growing body of work done over the past few decades has established that adipose tissue as an active endocrine organ which secretes a wide range of metabolic and immunological factors collectively called "adipokines (1)." Importantly, these secreted factors enter into the circulation and have paracrine and autocrine actions, which profoundly impact systemic metabolism (e.g., insulin sensitivity). Additionally, in animals, loss of ovarian hormone production via ovariectomy (similar to menopause in humans) leads to increases in both in adipose tissue mass and in adipose tissue inflammation (2) making this tissue less healthy than that from premenopausal animals. To date, no studies have investigated the effect of menopause on abdominal fat in overweight individuals. Knowing if adipose tissue-specific changes occur with menopause may potentially lead to recommendations or therapeutics to improve women's health post menopause.</t>
@@ -4983,7 +5607,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>Obesity, Morbid, Bariatric Surgery Candidate</t>
@@ -5009,8 +5637,16 @@
           <t>measured in the one sample collected at surgery, measured in the one sample collected at surgery, measured in the one sample collected at surgery</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -5040,7 +5676,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y37" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -5088,7 +5728,11 @@
           <t>Umeå University</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>This study compared differences in weight loss, comorbidity resolution and complications and reoperations between a recently established sleeve gastrectomy (SG) and prior laparoscopic Rox-en-Y gastric bypass (RYGB).</t>
@@ -5099,7 +5743,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>Postoperative Complications</t>
@@ -5125,8 +5773,16 @@
           <t>after 6 weeks, after 1 year, after 2 years, after 1 year, after 2 years, after 1 year, after 2 years, after 1 year, after 2 year, after 1 years, after 2 years, From the start of the operation until completion, in average 62 minutes, From time of operation until discharge, in average 1.7 days, At six weeks, At six weeks, From six weeks until 2 years from operation, From six weeks until 2 years from operation</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -5145,13 +5801,21 @@
           <t>Sundsvall</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y38" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -5199,7 +5863,11 @@
           <t>NYU Langone Health</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>Studies conducted assessing diabetic eye disease have shown a progression of diabetic retinopathy with rapid improvement of glycemic control during pregnancy and in patients with type 1 diabetes. It is also well documented that bariatric surgery may result in rapid improvement of glycemic control in obese patients with type 2 diabetes. To our knowledge the progression of diabetic eye disease seen in pregnancy and type 1 diabetes has not been studied in obese type 2 diabetics undergoing bariatric surgery. To this end, this study will examine the effects of rapid glycemic control which is seen in type 2 diabetics following bariatric surgery on the progression of diabetic retinopathy.</t>
@@ -5210,14 +5878,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>Obesity, Diabetes Mellitus</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr">
         <is>
           <t>rapid changes in the level of retinopathy</t>
@@ -5228,8 +5908,16 @@
           <t>12 months</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -5258,7 +5946,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y39" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -5306,7 +5998,11 @@
           <t>University of Colorado, Denver</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>Type 2 diabetes (T2D) in youth is increasing in prevalence in parallel with the obesity epidemic. In the US, almost half of patients with renal failure have DKD, and ≥80% have T2D. Compared to adult-onset T2D, youth with T2D have a more aggressive phenotype with greater insulin resistance (IR), more rapid β-cell decline and higher prevalence of diabetic kidney disease (DKD), arguing for separate and dedicated studies in youth-onset T2D. Early DKD is characterized by changes in intrarenal hemodynamic function, including increased renal plasma flow (RPF) and glomerular pressure with resultant hyperfiltration, is common in Y-T2D, and predicts progressive DKD.
@@ -5416,7 +6112,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y40" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -5479,7 +6179,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -5553,7 +6257,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr"/>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y41" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -5601,7 +6309,11 @@
           <t>Lev-Hasharon Mental Healtlh Center</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>Based on previous findings that mentally ill inpatients are interested in losing treatment associate weight gain and are capable of adhering to a weight reduction program, this study will investigate the effects of participation in nutrition intervention, physical exercise and will monitor measurement of metabolic profiles (cholesterol, triglycerides and glucose). Hypothesis: participants will reduce weight, maintain weight loss and experience reduction in metabolic values and will experience improved quality of life.</t>
@@ -5612,7 +6324,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -5672,13 +6388,21 @@
           <t>Netanya</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr">
         <is>
           <t>Israel</t>
         </is>
       </c>
-      <c r="X42" t="inlineStr"/>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y42" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -5813,7 +6537,11 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr"/>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y43" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -5861,7 +6589,11 @@
           <t>Universidade Federal de Pernambuco</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>Background: Plication of the rectus abdominis muscles leads to an increase in intra-abdominal pressure (IAP), which may negatively impact the respiratory system due to its effects on diaphragmatic mobility (DM).
@@ -5874,7 +6606,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>Abdominoplasty Surgery</t>
@@ -5900,8 +6636,16 @@
           <t>preoperative and on the 1st postoperative day., preoperatively, after plication of the rectus abdominis muscles in the supine and modified Fowler positions, after abdominal wall synthesis, after bandaging and on the 1st postoperative day with and without girdle.</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr">
         <is>
           <t>The study included women aged 25 to 55 years old who underwent abdominoplasty after bariatric surgery under spinal anesthesia, with an anchor-shaped scar, presenting type IV or V abdominal deformity as described by Bozola, with stable body weight for a minimum of 6 months after achieving post-bariatric surgery weight loss goals, and a body mass index (BMI) ≤ 30 kg/m2. All study participants scored above 18 points on the Mini-Mental State Examination. Patients with respiratory and cardiac comorbidities and a history of smoking for more than 10 years were excluded from the analysis.</t>
@@ -5927,7 +6671,11 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr"/>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y44" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -5975,7 +6723,11 @@
           <t>Minia University</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>the left lobe of the liver in obese patient usually fatty and enlarged and may cause difficulty during bariatric surgery. the aim of this study is to test the impact of routine preoperative ultrasound to evaluate the size of left lobe of the liver as a preoperative predictor for difficulty</t>
@@ -5986,7 +6738,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>Obesity, Morbid</t>
@@ -6044,13 +6800,21 @@
           <t>Minya</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr">
         <is>
           <t>Egypt</t>
         </is>
       </c>
-      <c r="X45" t="inlineStr"/>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y45" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -6175,13 +6939,21 @@
           <t>Athens</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr">
         <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr"/>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y46" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -6229,7 +7001,11 @@
           <t>Hospitales Universitarios Virgen del Rocío</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>Bariatric surgery has been established as the best treatment for morbid obesity, compared with diet or medical treatment. Laparoscopic approach have improved the results of this surgery in terms of postoperative pain, reduction in the number of complications and hospital stay, as well as better cosmetic results. Conventional laparoscopic technique requires five to seven abdominal incisions to facilitate placement of the multiple trocars. New Single Incision Laparoscopic Surgery (SILS)has been developed as a new technique where only one incision is needed for the introduction of all trocars. Altough this technique can be performed with conventional laparoscopic instruments, new devides have been developed for facilitate this operations by SILS. The investigators think that reducing the number of incision would decrease the postoperative pain and improve cosmetic results in our patients, being a safe and technically feasible intervention supported by these special devices.</t>
@@ -6240,7 +7016,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>Morbid Obesity</t>
@@ -6298,13 +7078,21 @@
           <t>Seville</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr"/>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y47" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -6367,7 +7155,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>Obesity, Morbid</t>
@@ -6393,8 +7185,16 @@
           <t>From baseline to 1 year postoperatively</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -6414,13 +7214,21 @@
           <t>Trondheim</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr"/>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y48" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -6468,7 +7276,11 @@
           <t>Francesco De Cobelli</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>Obesity is a extremely widespread condition in Europe and North America, burdened by a series of complications characterized by major morbidity and morbility. In recent years, bariatric surgery has progressively assumed a leading role in the treatment of morbid obesity and restrictive bariatric surgery procedures, such as laparoscopic vertical sleeve gastrectomy are common.
@@ -6480,7 +7292,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -6540,13 +7356,21 @@
           <t>Milano</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr"/>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y49" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -6609,7 +7433,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -6635,8 +7463,16 @@
           <t>baseline, 12 weeks</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -6672,7 +7508,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X50" t="inlineStr"/>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y50" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -6720,7 +7560,11 @@
           <t>China-Japan Friendship Hospital</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>Developing and validating a predictive model to estimate the risk of early biliary stasis following bariatric surgery</t>
@@ -6731,14 +7575,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>Obesity, Diabetes, Gallstones, Biliary Stasis</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr">
         <is>
           <t>early biliary stasis, prediction model</t>
@@ -6749,8 +7605,16 @@
           <t>one month, six months</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -6762,11 +7626,31 @@
 2. contraindications for bariatric surgery.</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y51" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -6814,7 +7698,11 @@
           <t>Eisai Inc.</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>The purpose of this study is to assess the weight loss effect of lorcaserin during and at the end of 1 year of treatment in overweight and obese patients with Type II diabetes mellitus treated with metformin, sulfonylurea (SFU), or either agent in combination with other oral hypoglycemic agents.</t>
@@ -6898,7 +7786,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X52" t="inlineStr"/>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y52" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -6946,7 +7838,11 @@
           <t>Oklahoma State University</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>The overall objective of this three-arm randomized controlled trial is to compare a dietary fiber-focused behavioral intervention to standard weight loss education for improving eating-related behavior and cognition, weight, and metabolic markers of chronic disease risk in a population of adults with obesity.</t>
@@ -6957,7 +7853,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -7034,7 +7934,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X53" t="inlineStr"/>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y53" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -7098,7 +8002,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>Obesity, Bariatric Surgery</t>
@@ -7163,13 +8071,21 @@
           <t>St Etienne</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="X54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y54" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -7232,7 +8148,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>Obesity, Insulin Resistance</t>
@@ -7319,7 +8239,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X55" t="inlineStr"/>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y55" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -7367,7 +8291,11 @@
           <t>University of Turin, Italy</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>Symptomatic Gastroesophageal Reflux (GER) is considered by many a contraindication to laparoscopic sleeve gastrectomy (LSG). However, of the few studies that have investigated the relationship between LSG and GER the majority reported only changes in symptoms and manometric data, while assessment of GER using 24-hour pH monitoring is lacking.
@@ -7379,14 +8307,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>Gastroesophageal Reflux, Obesity</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr">
         <is>
           <t>Change from baseline in DeMeester's score</t>
@@ -7434,13 +8374,21 @@
           <t>Turin</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="X56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y56" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -7503,7 +8451,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>Metabolic Syndrome, Obesity, Dyslipidemias</t>
@@ -7576,7 +8528,11 @@
           <t>United States, United States</t>
         </is>
       </c>
-      <c r="X57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y57" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -7624,7 +8580,11 @@
           <t>Atlas University</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>Surgical treatment is the most effective way to achieve effective and sustainable weight loss in patients with obesity and to improve the comorbidities caused by it.
@@ -7639,7 +8599,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>Obesity, Post Operative Pain</t>
@@ -7707,13 +8671,21 @@
           <t>Istanbul</t>
         </is>
       </c>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="X58" t="inlineStr"/>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y58" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -7761,7 +8733,11 @@
           <t>Northwestern University</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>Can Intraoperative systemic lidocaine decrease postoperative opioid consumption and improve quality of recovery after laparoscopic gastric bypass surgery? The hypotheses:does the use of intraoperative systemic lidocaine decrease postoperative opioid consumption and improve quality of recovery after laparoscopic gastric bypass surgery.
@@ -7773,7 +8749,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>Pain, Obesity</t>
@@ -7846,7 +8826,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X59" t="inlineStr"/>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y59" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -7894,7 +8878,11 @@
           <t>Assistance Publique - Hôpitaux de Paris</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
           <t>Demonstrate non-inferiority of the single port for sleeve gastrectomy compared to the reference method in terms of complications using a score of morbidity and mortality at 6 and 24 months: Rate of fistula, intra and extra abdominal abcess, hemorrhage, gastric stenosis, splenic lesions, hernia, residual gastric pouch and mortality</t>
@@ -7905,7 +8893,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>Surgical Treatment of Obesity</t>
@@ -7974,13 +8966,21 @@
           <t>Paris</t>
         </is>
       </c>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W60" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="X60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y60" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -8043,7 +9043,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -8069,8 +9073,16 @@
           <t>24 weeks</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -8118,7 +9130,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X61" t="inlineStr"/>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y61" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -8166,7 +9182,11 @@
           <t>ReShape Lifesciences</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>The study evaluated the safety and efficacy of the vBloc Therapy delivered by the Maestro Rechargeable System compared to a sham control for the treatment obesity. The Maestro Rechargeable System delivers intermittent, electrical blocking signals to the anterior and posterior trunks of the intra-abdominal vagus nerve (termed vBloc Therapy) and is designed to reduce sensations of hunger and produce satiety leading to weight loss. After approval from the institutional review board, subjects provided written consent and were randomized in a 2 to 1 allocation to vBloc group (with laparoscopic placement of the leads and neuroregulator) or the sham group (placement of a custom sham neuroregulator only) on double-blinded basis. Both groups received similar diet and exercise counseling. Weight, adverse events, clinical laboratories, ECGs, eating questionnaires and quality of life data were evaluated throughout the 12 month study duration.</t>
@@ -8177,7 +9197,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -8203,8 +9227,16 @@
           <t>12 months, 12 months, 12 months</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr">
         <is>
           <t>Inclusion criteria
@@ -8284,7 +9316,11 @@
           <t>United States, United States, United States, United States, United States, United States, United States, United States, Australia, Australia</t>
         </is>
       </c>
-      <c r="X62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y62" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -8332,7 +9368,11 @@
           <t>Johnson &amp; Johnson Pharmaceutical Research &amp; Development, L.L.C.</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>The purpose of this study is to compare the efficacy (in terms of weight and hemoglobin type A1c \[HbA1c\]) and safety of topiramate (96 milligrams\[mg\] or 192 mg daily) with placebo in the treatment of obesity in Type 2 diabetic patients receiving metformin.</t>
@@ -8368,13 +9408,21 @@
           <t>The percent change in body weight and change in HbA1c from baseline (Week 0) to one year after maintenance therapy (Week 60).</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr">
         <is>
           <t>Changes from baseline or from enrollment to Week 60 in BMI and HRQOL measures; safety evaluations, such as adverse events and vital signs throughout study.</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -8394,11 +9442,31 @@
 * Severe pulmonary disease</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y63" t="inlineStr">
         <is>
           <t>Pharmacological</t>
@@ -8446,7 +9514,11 @@
           <t>Sheba Medical Center</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>Prophylactic use of tranexamic acid to reduce intra and postoperative bleeding in primary sleeve gastrectomy procedures will be studied.</t>
@@ -8525,13 +9597,21 @@
           <t>Tel Hashomer</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W64" t="inlineStr">
         <is>
           <t>Israel</t>
         </is>
       </c>
-      <c r="X64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y64" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -8594,7 +9674,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>Obesity, Morbid</t>
@@ -8658,13 +9742,21 @@
           <t>Riyadh</t>
         </is>
       </c>
-      <c r="V65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W65" t="inlineStr">
         <is>
           <t>Saudi Arabia</t>
         </is>
       </c>
-      <c r="X65" t="inlineStr"/>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y65" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -8728,14 +9820,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>Bariatric Surgery Candidate, Obesity, Morbid, Genetic Predisposition, Metabolic Syndrome, Weight Loss</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr">
         <is>
           <t>Genomic markers that can predict the weight change response to bariatric surgery</t>
@@ -8795,7 +9899,11 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="X66" t="inlineStr"/>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y66" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -8858,7 +9966,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>Severe Obesity, Morbid Obesity</t>
@@ -8934,7 +10046,11 @@
           <t>Brazil, Brazil, Brazil</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr"/>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y67" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -8982,7 +10098,11 @@
           <t>University of Lausanne</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
           <t>This study is aimed at assessing how Roux-en-Y gastric bypass (RYGP) impacts on energy and nutrients' intake, energy expenditure, and nutritional status in obese patients. It will try quantitate energy and protein balance after RYGP, and to identify how RYGP effects the intake of various common dietary protein sources 16 female patients with BMI \&gt; 40 kg/m2 and on a waiting list for bariatric surgery will be included. The following measurements will be performed before, and 1, 3, 6, 12, and 36 months after RYGP
@@ -8999,7 +10119,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>Obesity, Nutritional Deficiencies</t>
@@ -9056,13 +10180,21 @@
           <t>Lausanne</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W68" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="X68" t="inlineStr"/>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y68" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -9110,7 +10242,11 @@
           <t>Ain Shams University</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>Primary aim: comparing the efficacy of standard PCNL and endoscopic combined intrarenal surgery (ECIRS) in the Galdakao-modified Supine Valdivia (GMSV) position in a single session for the treatment of complex nephrolithiasis in obese patients.
@@ -9122,7 +10258,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>Renal Stone</t>
@@ -9179,13 +10319,21 @@
           <t>Cairo</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr">
         <is>
           <t>Egypt</t>
         </is>
       </c>
-      <c r="X69" t="inlineStr"/>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y69" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -9233,7 +10381,11 @@
           <t>Chulalongkorn University</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>The purpose of this study is to investigate whether bariatric surgery affects Drospirenone only pills absorption</t>
@@ -9312,13 +10464,21 @@
           <t>Bangkok</t>
         </is>
       </c>
-      <c r="V70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W70" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="X70" t="inlineStr"/>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y70" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -9366,7 +10526,11 @@
           <t>University Hospital, Toulouse</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>The aim of this study is to evaluate the effect of the use of Protein Assistant on the daily protein intake in obese patients who underwent a bariatric surgery (in the 3 months following surgery).</t>
@@ -9377,7 +10541,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -9438,13 +10606,21 @@
           <t>Toulouse</t>
         </is>
       </c>
-      <c r="V71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W71" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="X71" t="inlineStr"/>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y71" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -9492,7 +10668,11 @@
           <t>Lora Burke</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>This randomized clinical trial of weight loss treatment will examine if adding personalized, one-on-one treatment session to standard behavioral group treatment will result in greater weight loss, less weight regain after weight loss, and better adherence to the treatment protocol.
@@ -9510,7 +10690,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>Overweight, Obesity</t>
@@ -9585,7 +10769,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X72" t="inlineStr"/>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y72" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -9633,7 +10821,11 @@
           <t>Jose Soberon, MD</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>One technique for the nerve block involves injecting the numbing medicine where the nerve is together (higher up in the back of the thigh). The other technique involves injecting the numbing medicine where the nerve splits into two parts. By injecting numbing medication around the nerve(s), there will be less pain after the procedure. It is thought that the numbing medicine will be easier to inject in the group that the nerves are split. It is expected that subjects may need less pain medication and have lower pain ratings in this group too.</t>
@@ -9644,18 +10836,46 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>Strain of Muscle and/or Tendon of Lower Leg, Fracture of Lower Leg, Crushing Injury of Lower Leg, Fracture Malunion - Ankle and/ or Foot, Complete Tear, Ankle and/or Foot Ligament, Pathological Fracture - Ankle and/or Foot, Loose Body in Joint of Ankle and/or Foot</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -9693,7 +10913,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X73" t="inlineStr"/>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y73" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -9741,7 +10965,11 @@
           <t>Northwell Health</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
           <t>A randomized controlled, parallel group, superiority, open-label, single-institution, Phase 3 interventional clinical trial to evaluate clinical outcomes in obese gravidas undergoing elective cesarean delivery whose wounds were dressed with the PICO Negative Pressure Wound Therapy (NPWT) versus the standard dressing. We hypothesize that the PICO NPWT will reduce the incidence of surgical site occurrences and interventions and postoperative readmissions in obese women. The study will compare surgical site occurrences and surgical incision intervention incidence within 42 +/- 10 days post cesarean delivery in obese women who have the current standard-of-care dressing versus the PICO NPWT.</t>
@@ -9846,7 +11074,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X74" t="inlineStr"/>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y74" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -9894,7 +11126,11 @@
           <t>University of Minnesota</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
           <t>This study will test the use of phentermine and topiramate compared with placebo in helping adolescents who are at high risk for developing obesity to lose weight</t>
@@ -9935,8 +11171,16 @@
           <t>24 months</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S75" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -10000,7 +11244,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X75" t="inlineStr"/>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y75" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -10063,7 +11311,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -10138,7 +11390,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X76" t="inlineStr"/>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y76" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -10186,7 +11442,11 @@
           <t>Touro University Nevada</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>This study is to evaluate the physical and cognitive effects of a 15 min per day novel breathing and mindfulness moving-meditation program on metabolism, cognition, and emotion health. It is thought that the breathing and movement program will increase basal metabolism, facilitate fat loss, and decrease depressive behaviors. Anthropometric, blood chemistries, and cognitive measures of depression, sleep, and hunger will be measured over a two-month interventional program.</t>
@@ -10197,7 +11457,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>Weight Loss, Metabolism</t>
@@ -10270,7 +11534,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X77" t="inlineStr"/>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y77" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -10318,7 +11586,11 @@
           <t>John M. Jakicic, PhD</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
           <t>The primary aim of this study is to compare the changes in body weight between a technology-based system, an in-person behavioral weight loss intervention, and a combination of both during a 12 month behavioral weight loss intervention in adults. Sedentary, healthy overweight and obese adults will be recruited to participate. Assessments will be conducted at 0, 6, and 12 months. This is a randomized trial in which participants will be randomized to one of three groups: standard behavioral weight loss (SBWL), standard behavioral weight loss plus technology (SBWL+TECH), and technology alone alone (TECH).</t>
@@ -10408,7 +11680,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X78" t="inlineStr"/>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y78" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -10456,7 +11732,11 @@
           <t>Hospital Clinic of Barcelona</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
           <t>Roux-en-Y gastric bypass (RY-GBP) is one of the surgical techniques most widely used for the treatment of obesity. Long series of operated patients published in the literature have demonstrated its safety and efficacy. It consists on the reduction of the size of the stomach and joining it (anastomosis) with the small bowel to reduce the absorption of calories.
@@ -10469,7 +11749,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>Obesity</t>
@@ -10518,11 +11802,31 @@
 * Non-candidates to mixed bariatric surgery.</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y79" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -10585,7 +11889,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>Periodontitis, Periodontal Diseases, Obesity</t>
@@ -10654,7 +11962,11 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="X80" t="inlineStr"/>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y80" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -10702,7 +12014,11 @@
           <t>Tanta University</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
           <t>The aim of this study is to evaluate the usefulness of adding aminophylline to dexmedetomidine intravenous infusion intraoperatively on oxygenation and lung mechanics in chronic obstructive pulmonary disease (COPD) morbidly obese patients undergoing bariatric surgery.</t>
@@ -10713,7 +12029,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>Aminophylline, Chronic Obstructive Pulmonary Disease, Obese, Laparoscopic Bariatric Surgery, Dexmedetomidine, Lung Mechanics</t>
@@ -10786,7 +12106,11 @@
           <t>Egypt</t>
         </is>
       </c>
-      <c r="X81" t="inlineStr"/>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y81" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -10849,14 +12173,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>Morbid Obesity, Non-alcoholic Fatty Liver Disease</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr">
         <is>
           <t>Firmicutes/Bacteroides ratio in feces</t>
@@ -10915,7 +12251,11 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="X82" t="inlineStr"/>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y82" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -10978,7 +12318,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>Obesity, Bariatrics, Body Weight, Diabetes Mellitus, Weight Loss, Roux-en-Y Gastric Bypass, Gastric Bypass</t>
@@ -11046,11 +12390,31 @@
 • Race and ethnicity available in study data</t>
         </is>
       </c>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y83" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -11115,7 +12479,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>Obesity, Morbid, Stem Cells, Cardiovascular Morbidity</t>
@@ -11181,7 +12549,11 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="X84" t="inlineStr"/>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y84" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -11247,7 +12619,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>Bariatric Surgery Candidate</t>
@@ -11304,13 +12680,21 @@
           <t>Nice</t>
         </is>
       </c>
-      <c r="V85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W85" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="X85" t="inlineStr"/>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y85" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -11449,7 +12833,11 @@
           <t>Mexico</t>
         </is>
       </c>
-      <c r="X86" t="inlineStr"/>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y86" t="inlineStr">
         <is>
           <t>Pharmacological</t>
@@ -11497,7 +12885,11 @@
           <t>Catholic University of the Sacred Heart</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
           <t>To assess the impact of weight loss due to bariatric surgery, as compared to the effect of optimal medical therapy alone on endothelial function, subclinical atherosclerosis, cardiovascular autonomic function in obese patient affected by type 2 diabetes.The study consists in a 2-arm randomized trial, in which patients will be randomly assigned to bariatric surgery or optimal medical therapy. Each patient will be studied at baseline (T0) and 12 months thereafter (T1).</t>
@@ -11508,7 +12900,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>Obesity, Diabetes Mellitus, Type 2, Atherosclerosis</t>
@@ -11534,8 +12930,16 @@
           <t>12 months, 12 months, 12 months</t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S87" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -11552,11 +12956,31 @@
 * geographic inaccessibility.</t>
         </is>
       </c>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y87" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -11604,7 +13028,11 @@
           <t>National Institute of Diabetes and Digestive and Kidney Diseases (NIDDK)</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr">
         <is>
           <t>Obesity and type 2 diabetes (T2DM) are increasing in the US. One third of patients seeking bariatric surgery have T2DM. Although all surgeries result in significant weight loss and often 'cure' the T2DM, the rapid onset and the magnitude of the benefits of gastric bypass (GBP) on T2DM has thus far baffled clinical scientists. Limited data suggest that the improvement in T2DM after GBP occurs very rapidly, and may not be wholly accounted for by weight loss. Secretion of incretins (gut peptides secreted in response to meals which enhance insulin secretion) is impaired in T2DM and improves after GBP, possibly due to the specific anatomical changes after this surgery. While some determinants of impaired insulin secretion, such as glucotoxicity, improve equally after diet or surgical weight loss, the improvement in the incretin effect after GBP might be specific to this surgery. The aim of this study is to determine whether the magnitude of the incretin effect on insulin secretion is greater after GBP than after an equivalent diet-induced weight loss. We will compare, in obese patients with diabetes, randomized to very low calorie diet or to GBP, the effect of an equivalent weight loss on the incretin effect (difference in insulin secretion after comparable oral and intravenous (IV) glucose loads). As more obese diabetic patients undergo GBP, understanding the mechanisms that produce improvement in their diabetes is increasingly important.</t>
@@ -11615,7 +13043,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>Gastric Bypass Surgery, Obesity</t>
@@ -11641,8 +13073,16 @@
           <t>One month</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S88" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -11673,7 +13113,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X88" t="inlineStr"/>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y88" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -11721,7 +13165,11 @@
           <t>BaroSense Inc.</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I89" t="inlineStr">
         <is>
           <t>The Barosense Trans-oral Endoscopic Restrictive Implant System (TERIS) is an investigational system being evaluated for safety The system uses endoscopic guidance to trans-orally implant a restrictive reservoir for food entering the stomach in obese and morbidly obese subjects to induce early and prolonged satiety. The Intended Use of the system is for the treatment of obesity.</t>
@@ -11831,7 +13279,11 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="X89" t="inlineStr"/>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y89" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -11879,7 +13331,11 @@
           <t>Esbjerg Hospital - University Hospital of Southern Denmark</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
           <t>The goal of this observational study is to learn about how bariatric surgery affects the metabolism of cortisol.
@@ -11892,14 +13348,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>Postbariatric Hypoglycemia</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr">
         <is>
           <t>Changes in serum cortisol during mixed meal test</t>
@@ -11936,11 +13404,31 @@
 * Previously diagnosed reactive hypoglycemia after bariatric surgery requiring medical treatment</t>
         </is>
       </c>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y90" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -12003,7 +13491,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>Surgical Wound Infection, Infection; Cesarean Section, Cesarean Section; Dehiscence, Complications; Cesarean Section, Complications; Cesarean Section, Wound, Dehiscence, Wound; Rupture, Surgery, Cesarean Section</t>
@@ -12069,7 +13561,11 @@
           <t>Denmark, Denmark, Denmark, Denmark, Denmark</t>
         </is>
       </c>
-      <c r="X91" t="inlineStr"/>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y91" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -12117,7 +13613,11 @@
           <t>Drexel University</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr">
         <is>
           <t>The primary goal of this project is to determine if an innovative behavioral weight loss program that incorporates new developments from the field of behavior therapy produces superior weight control than standard behavioral treatment. A sample of 200 adults from the community are participating in this study.</t>
@@ -12128,7 +13628,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>Acceptance-based Treatment, Standard Behavioral Treatment</t>
@@ -12154,8 +13658,16 @@
           <t>Baseline - 2-year follow-up</t>
         </is>
       </c>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S92" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -12192,7 +13704,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X92" t="inlineStr"/>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y92" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -12240,7 +13756,11 @@
           <t>Zagazig University</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
           <t>Sleeve gastrectomy (SG) continues to be one of the most popular bariatric procedures all over the world. It has been established that obesity is a predisposing factor for several comorbidities, including life-threatening conditions. Many studies have discussed the impact of sleeve gastrectomy on TSH level. But, since most obese patients have some sort of depression, we will try to study the impact of sleeve gastrectomy, depression and hypothyroidism on each other.</t>
@@ -12251,7 +13771,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>Obesity and Obesity-related Medical Conditions</t>
@@ -12318,7 +13842,11 @@
           <t>Egypt, Egypt</t>
         </is>
       </c>
-      <c r="X93" t="inlineStr"/>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y93" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -12382,7 +13910,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>Obesity, Morbid</t>
@@ -12408,8 +13940,16 @@
           <t>from baseline to 3 months, 1 year, and 3 years</t>
         </is>
       </c>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S94" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -12438,13 +13978,21 @@
           <t>Namsos, Trondheim</t>
         </is>
       </c>
-      <c r="V94" t="inlineStr"/>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W94" t="inlineStr">
         <is>
           <t>Norway, Norway</t>
         </is>
       </c>
-      <c r="X94" t="inlineStr"/>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y94" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -12590,7 +14138,11 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="X95" t="inlineStr"/>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y95" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -12653,7 +14205,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>Type 2 Diabetes Mellitus, Obesity</t>
@@ -12726,7 +14282,11 @@
           <t>United States, United States</t>
         </is>
       </c>
-      <c r="X96" t="inlineStr"/>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y96" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -12774,7 +14334,11 @@
           <t>All India Institute of Medical Sciences, Bhubaneswar</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I97" t="inlineStr">
         <is>
           <t>This observational study aims to learn about the correlation between the improving comorbidities associated with obesity after MGB (Mini-Gastric Bypass) surgery and changes in body composition in morbidly obese patients. The main questions it aims to answer are:
@@ -12791,7 +14355,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>Morbid Obesity, Type2diabetes, Sleep Apnea, Hypothyroidism, Hypertension, Lipid Disorder, Non-Alcoholic Fatty Liver Disease, Chronic Venous Hypertension With Ulcer</t>
@@ -12856,7 +14424,11 @@
           <t>India</t>
         </is>
       </c>
-      <c r="X97" t="inlineStr"/>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y97" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -12904,7 +14476,11 @@
           <t>Laboratorios Silanes S.A. de C.V.</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I98" t="inlineStr">
         <is>
           <t>The aim of this study is to evaluate the effect of sibutramine and metformin combination therapy in comparison with sibutramine or metformin monotherapy over weight, adiposity, glucose metabolism and inflammatory state in obese patients.</t>
@@ -13007,7 +14583,11 @@
           <t>Mexico</t>
         </is>
       </c>
-      <c r="X98" t="inlineStr"/>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y98" t="inlineStr">
         <is>
           <t>Pharmacological</t>
@@ -13055,7 +14635,11 @@
           <t>University Hospital, Bordeaux</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
           <t>Compare Male Health Sexual Questionnaire (MHSQ) before and after bariatric surgery to assess the sexual health of the obese men with a recommended and exhaustive tool. There are few data that evaluate the sexual health of this population.</t>
@@ -13066,14 +14650,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>Bariatric Surgery</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr">
         <is>
           <t>Average of Male Health Sexual Questionnaire (MHSQ) score</t>
@@ -13114,13 +14710,21 @@
           <t>Pessac, Pessac</t>
         </is>
       </c>
-      <c r="V99" t="inlineStr"/>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W99" t="inlineStr">
         <is>
           <t>France, France</t>
         </is>
       </c>
-      <c r="X99" t="inlineStr"/>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y99" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -13168,7 +14772,11 @@
           <t>Baystate Medical Center</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
           <t>Obesity affects over one-third of the US population, and is associated with serious medical problems like diabetes and heart disease. Weight loss surgery is the most effective treatment for obesity, but some weight loss surgery patients lose less weight than others, and some patients regain the weight they lost. Researchers have found that support groups help post-surgical patients lose more weight, but long-term support programs often aren't available or are difficult for patients to get to. Physical activity is also important for weight loss surgery patients, but most post-surgical support programs don't focus on helping patients exercise. Our pilot study will test an Internet-based weight loss surgery support program that patients can use from home, and will include new devices such as wireless weight scales and wireless pedometers to help patients track their weight loss and physical activity and share their progress with their clinicians over the Internet. If successful, our support intervention will help more patients successfully lose weight after surgery, and therefore will improve their long-term health.</t>
@@ -13209,8 +14817,16 @@
           <t>3 months post surgery</t>
         </is>
       </c>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S100" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -13245,7 +14861,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X100" t="inlineStr"/>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y100" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -13293,7 +14913,11 @@
           <t>Poitiers University Hospital</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
           <t>Obesity in the world represents a growing share of the general population. At hospital, the management of these patients could be problematic especially when calculating the drug dosage.
@@ -13306,7 +14930,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>Obesity, Neostigmine, Residual Neuromuscular Blockade</t>
@@ -13369,13 +14997,21 @@
           <t>Poitiers</t>
         </is>
       </c>
-      <c r="V101" t="inlineStr"/>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W101" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="X101" t="inlineStr"/>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y101" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -13423,7 +15059,11 @@
           <t>US Department of Veterans Affairs</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
           <t>Obesity is a prevalent disorder and linked with inflammation, insulin resistance, dyslipidemia, obstructive sleep apnea, atherosclerosis, and associated with significant morbidity and mortality. This randomized clinical trial will compare the effectiveness of Intense Exercise/Moderate Calorie Restriction (IE-MCR), Topiramate-Phentermine (TP) and cognitive behavioral therapy (CBT) on obesity and atherosclerosis in individuals with morbidly obesity. This randomized clinical trial will compare: 1) the change in fat mass and atherosclerosis, 2) the change in psychological and quality-of-life as well as economic burden in response to IE-MCR, TP and CBT, and 3) conduct exploratory mechanistic biomolecular, genetic and therapeutic analyses to develop intervention-specific individualized intervention models to improve management of morbidly obese individuals.</t>
@@ -13434,7 +15074,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>Obesity, Diabetes Mellitus</t>
@@ -13505,7 +15149,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X102" t="inlineStr"/>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y102" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -13553,7 +15201,11 @@
           <t>Avera McKennan Hospital &amp; University Health Center</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>This is a pilot study to determine the safety and efficacy of an investigational product (IHBG-10) on weight change and changes in body composition in subjects who have been taking a stable dose of certain anti-psychotic medications for longer than three months.</t>
@@ -13638,7 +15290,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X103" t="inlineStr"/>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y103" t="inlineStr">
         <is>
           <t>Pharmacological</t>
@@ -13686,7 +15342,11 @@
           <t>Region Skane</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I104" t="inlineStr">
         <is>
           <t>The goal of this trial is to compare different means of glucose monitoring in women with gestational diabetes and a history of gastric bypass surgery.
@@ -13700,7 +15360,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>Diabetes, Gestational, Gastric Bypass Status for Obesity Complicating Pregnancy, Childbirth, or the Puerperium, Pregnancy in Diabetic, Blood Glucose Self Monitoring</t>
@@ -13759,13 +15423,21 @@
           <t>Lund</t>
         </is>
       </c>
-      <c r="V104" t="inlineStr"/>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W104" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="X104" t="inlineStr"/>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y104" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -13833,7 +15505,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>Overweight and Obesity</t>
@@ -13904,7 +15580,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X105" t="inlineStr"/>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y105" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -13942,13 +15622,21 @@
           <t>2017-02-01</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
           <t>The First Hospital of Jilin University</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
           <t>The purpose of this study is to determine the effect of GLP-1 receptor agonist on inducing diabetes remission in newly diagnosed type 2 diabetes who are overweight or obese</t>
@@ -14044,7 +15732,11 @@
           <t>China</t>
         </is>
       </c>
-      <c r="X106" t="inlineStr"/>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y106" t="inlineStr">
         <is>
           <t>Pharmacological</t>
@@ -14107,14 +15799,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>Peripheral Neuropathy, Obesity</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O107" t="inlineStr">
         <is>
           <t>Change in reinnervation capacity</t>
@@ -14169,7 +15873,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X107" t="inlineStr"/>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y107" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -14217,7 +15925,11 @@
           <t>Changi General Hospital</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
           <t>Non-alcoholic fatty liver disease (NAFLD) is defined by presence of hepatic steatosis (fat accumulation in liver cells), either by imaging or by biopsy and absence of causes for secondary hepatic fat accumulation such as significant alcohol consumption, medications, or hereditary disorders. In the majority of patients, NAFLD is associated with risk factors for cardiovascular disease such as obesity, diabetes mellitus, and high cholesterol, and may lead to irreversible liver damage. Non-alcoholic steatohepatitis (NASH) is a more severe form of NAFLD and is present in up to 30% of obese adults. NASH is defined by hepatic steatosis and inflammation with hepatocyte injury with or without fibrosis (hardening of the liver).
@@ -14259,8 +15971,16 @@
           <t>12 months</t>
         </is>
       </c>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S108" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -14293,13 +16013,21 @@
           <t>Singapore</t>
         </is>
       </c>
-      <c r="V108" t="inlineStr"/>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W108" t="inlineStr">
         <is>
           <t>Singapore</t>
         </is>
       </c>
-      <c r="X108" t="inlineStr"/>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y108" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -14347,7 +16075,11 @@
           <t>Assistance Publique - Hôpitaux de Paris</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
           <t>This clinical trial is a monocentric, prospective, observational and controlled trial (historical cohort control group of healthy non-obese subjects who had Nasal functional exploration for Snoring) as part of current care.
@@ -14365,14 +16097,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>Obesity, Bariatric Surgery</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O109" t="inlineStr">
         <is>
           <t>To demonstrate a reduction of at least 30% of nasal compliance in a group of obese subjects (BMI&gt; 35) compared to a control group of healthy subjects</t>
@@ -14420,13 +16164,21 @@
           <t>Creteil</t>
         </is>
       </c>
-      <c r="V109" t="inlineStr"/>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="W109" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="X109" t="inlineStr"/>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y109" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -14474,7 +16226,11 @@
           <t>Hasanuddin University</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr">
         <is>
           <t>Background :
@@ -14521,8 +16277,16 @@
           <t>Changes of HOMA IR value from baseline to 8 weeks</t>
         </is>
       </c>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S110" t="inlineStr">
         <is>
           <t>Inclusion Criteria:
@@ -14556,7 +16320,11 @@
           <t>Indonesia</t>
         </is>
       </c>
-      <c r="X110" t="inlineStr"/>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y110" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -14604,7 +16372,11 @@
           <t>Loma Linda University</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I111" t="inlineStr">
         <is>
           <t>The purpose of this study is to treat toddler obesity by improving the toddler nutritional environment. Parents will participate in a free internet nutrition program and may also take obesity medication. These measures may improve the parental nutritional environment and in turn, improve the toddler nutritional environment as well.</t>
@@ -14645,8 +16417,16 @@
           <t>Change between baseline visit and final study visit at week 37, Change between baseline visit and final study visit at week 37</t>
         </is>
       </c>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S111" t="inlineStr">
         <is>
           <t>Inclusion Criteria: Adults
@@ -14693,7 +16473,11 @@
           <t>United States, United States</t>
         </is>
       </c>
-      <c r="X111" t="inlineStr"/>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y111" t="inlineStr">
         <is>
           <t>Pharmacological</t>
@@ -14756,7 +16540,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>Depression, Obesity</t>
@@ -14838,7 +16626,11 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="X112" t="inlineStr"/>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y112" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
@@ -14886,7 +16678,11 @@
           <t>The Methodist Hospital Research Institute</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr">
         <is>
           <t>The purpose of this study is to evaluate endoscopic sleeve gastroplasty (ESG) for the treatment of obesity. The ESG procedure is an U.S. Food and Drug Administration (FDA) approved procedure for the treatment of obesity - patients with a body mass index (BMI) 30-50 kg/m2. This procedure is FDA approved; however, Metabolic and Bariatric Surgery Accreditation and Quality Improvement Program (MBSAQIP)-Accredited centers (such as Houston Methodist Hospital) must receive approval from an Institutional Review Board (IRB) in order to perform primary procedures, such as ESG, that are not endorsed by the American Society for Metabolic and Bariatric Surgery (ASMBS).</t>
@@ -14897,7 +16693,11 @@
           <t>INTERVENTIONAL</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>Endoscopic Sleeve Gastroplasty, Obesity</t>
@@ -14970,7 +16770,11 @@
           <t>United States, United States</t>
         </is>
       </c>
-      <c r="X113" t="inlineStr"/>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y113" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -15018,7 +16822,11 @@
           <t>The Third Xiangya Hospital of Central South University</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr">
         <is>
           <t>This is a prospective, single-center, observational study to explore effects of bariatric surgery on different compositions of trunk fat and mechanisms.</t>
@@ -15029,14 +16837,26 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>Bariatric Surgery Candidate, Adiposity, Fat Redistribution</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="O114" t="inlineStr">
         <is>
           <t>Change from Baseline Subcutaneous Fat Area at 3 months after bariatric surgery, Change from Baseline Visceral Fat Area at 3 months after bariatric surgery, Change from Baseline Liver Fat Percentage at 3 months after bariatric surgery, Change from Baseline Pancreatic Fat Percentage at 3 months after bariatric surgery</t>
@@ -15091,7 +16911,11 @@
           <t>China</t>
         </is>
       </c>
-      <c r="X114" t="inlineStr"/>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y114" t="inlineStr">
         <is>
           <t>Surgical &amp; Medical Procedures</t>
@@ -15155,7 +16979,11 @@
           <t>OBSERVATIONAL</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>Obesity, Morbid</t>
@@ -15227,7 +17055,11 @@
           <t>Czechia, Czechia, Czechia</t>
         </is>
       </c>
-      <c r="X115" t="inlineStr"/>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y115" t="inlineStr">
         <is>
           <t>Lifestyle &amp; Behavioral Interventions</t>
